--- a/biology/Origine et évolution du vivant/Caractère_neutre/Caractère_neutre.xlsx
+++ b/biology/Origine et évolution du vivant/Caractère_neutre/Caractère_neutre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caract%C3%A8re_neutre</t>
+          <t>Caractère_neutre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un caractère neutre en biologie ne présente aucun avantage ni désavantage sélectif. Il ne subit pas la sélection naturelle.
 Par conséquent l'évolution de ce type de caractère est indépendante de l'environnement et n'est orientée que par la dérive génétique.
